--- a/src/excel-templates/placed-students.xlsx
+++ b/src/excel-templates/placed-students.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahna\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3454D2-D8B7-4AE1-A36E-6962C91481A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CBDC3F-50EB-4521-9B46-92A9CF1556DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3915" yWindow="630" windowWidth="15135" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="CINTEL">Sheet1!$L$2:$L$8</definedName>
-    <definedName name="CTECH">Sheet1!$N$2</definedName>
-    <definedName name="DSBS">Sheet1!$M$2:$M$7</definedName>
-    <definedName name="NWC">Sheet1!$O$2:$O$10</definedName>
+    <definedName name="CINTEL">Sheet2!$A$2:$A$9</definedName>
+    <definedName name="CTECH">Sheet2!$C$2:$C$8</definedName>
+    <definedName name="DSBS">Sheet2!$B$2:$B$9</definedName>
+    <definedName name="L">Sheet1!#REF!</definedName>
+    <definedName name="NWC">Sheet2!$D$2:$D$11</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -143,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -154,16 +156,22 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -198,10 +206,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,10 +428,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P1000"/>
+  <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -437,219 +445,184 @@
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="12" max="12" width="25.85546875" customWidth="1"/>
-    <col min="13" max="13" width="78.85546875" customWidth="1"/>
-    <col min="14" max="14" width="32.140625" customWidth="1"/>
-    <col min="15" max="15" width="56.7109375" customWidth="1"/>
-    <col min="16" max="16" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="L2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="L3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="L4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="L5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="L6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="L7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="L8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="I16" s="1"/>
@@ -5575,17 +5548,168 @@
       <c r="I1000" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:I1000" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Marquee,Super Dream,Dream,Day Sharing,Internship"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>$L$1:$O$1</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F1048576" xr:uid="{D5B0F55C-51ED-4A16-AE90-59332007C813}">
+      <formula1>INDIRECT(E6)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{060653E3-18AF-47F1-96E1-400C46EBE97E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5" xr:uid="{351D3178-4671-4461-AFA5-63266CB2A776}">
       <formula1>INDIRECT($E$2)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{055CD69C-C917-444A-AAC1-E7CBC8F33351}">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$1:$D$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CED921C-F4BB-462F-8BB1-DDF115855E0C}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="119.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>